--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_28_37.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_28_37.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>90492.5677993959</v>
+        <v>16309977.72421442</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>90492.5677993959</v>
+        <v>16309977.72421442</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12272.65024353659</v>
+        <v>1434682.237114356</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12272.65024353659</v>
+        <v>1434682.237114356</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1265915109.483952</v>
+        <v>50957574.42432325</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10243.64631559387</v>
+        <v>1149885.500503426</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19334.3120292682</v>
+        <v>2148299.232253014</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>28421.31200697456</v>
+        <v>3189591.460996562</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>37761.58883309643</v>
+        <v>4181748.36384172</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>46977.82656606605</v>
+        <v>5217891.881122648</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>56124.35849759517</v>
+        <v>6253193.090611558</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>65235.55816100852</v>
+        <v>7288301.174207731</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>74292.39478130142</v>
+        <v>8323328.171477602</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>83781.15135520566</v>
+        <v>9332592.49789086</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>92838.55443394301</v>
+        <v>10371312.95961323</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>101831.4138179816</v>
+        <v>11404499.06228296</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>110723.5236826048</v>
+        <v>12438053.70995171</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>119615.6335472261</v>
+        <v>13471608.35761997</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>128922.6156502452</v>
+        <v>14427288.06559373</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>139096.4770158026</v>
+        <v>15255512.36451147</v>
       </c>
     </row>
   </sheetData>
@@ -27043,7 +27043,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>350.000000000026</v>
@@ -27055,10 +27055,10 @@
         <v>55.00000000017565</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>305.9999999998567</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27150,13 +27150,13 @@
         <v>116</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>11</v>
